--- a/자유수강권자 환불/컴퓨터(강사).xlsx
+++ b/자유수강권자 환불/컴퓨터(강사).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="181">
   <si>
     <t>주야</t>
   </si>
@@ -925,9 +925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:XFD134"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1705,8 +1707,8 @@
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>63</v>
+      <c r="D34" s="1">
+        <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>67</v>
@@ -3477,10 +3479,10 @@
         <v>45</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>12</v>
@@ -3500,10 +3502,10 @@
         <v>45</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>12</v>
@@ -3517,16 +3519,16 @@
         <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>12</v>
@@ -3546,10 +3548,10 @@
         <v>9</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>12</v>
@@ -3566,13 +3568,13 @@
         <v>159</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>12</v>
@@ -3592,10 +3594,10 @@
         <v>13</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>12</v>
@@ -3615,10 +3617,10 @@
         <v>13</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>12</v>
@@ -3638,10 +3640,10 @@
         <v>13</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>12</v>
@@ -3661,10 +3663,10 @@
         <v>13</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>12</v>
@@ -3684,10 +3686,10 @@
         <v>13</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>12</v>
@@ -3704,13 +3706,13 @@
         <v>159</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>12</v>
@@ -3730,10 +3732,10 @@
         <v>18</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>12</v>
@@ -3753,10 +3755,10 @@
         <v>18</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>12</v>
@@ -3776,10 +3778,10 @@
         <v>18</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>12</v>
@@ -3796,13 +3798,13 @@
         <v>159</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>12</v>
@@ -3822,10 +3824,10 @@
         <v>28</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>12</v>
@@ -3845,10 +3847,10 @@
         <v>28</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>12</v>
@@ -3868,10 +3870,10 @@
         <v>28</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>12</v>
@@ -3888,13 +3890,13 @@
         <v>159</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>12</v>
@@ -3914,10 +3916,10 @@
         <v>39</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>12</v>
@@ -3937,10 +3939,10 @@
         <v>39</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>12</v>
@@ -3957,13 +3959,13 @@
         <v>159</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>12</v>
@@ -3983,38 +3985,15 @@
         <v>45</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="13.5">
-      <c r="A134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="1" t="s">
         <v>12</v>
       </c>
     </row>
